--- a/2023/ecuador_serie-b_2023.xlsx
+++ b/2023/ecuador_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V161"/>
+  <dimension ref="A1:V164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Buhos ULVR</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,34 +673,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nueve de Octubre</t>
+          <t>Manta</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22/03/2023 09:40</t>
+          <t>22/03/2023 09:35</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.02</v>
+        <v>2.62</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22/03/2023 20:59</t>
+          <t>22/03/2023 19:17</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>22/03/2023 09:40</t>
+          <t>22/03/2023 09:35</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -708,28 +708,28 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>22/03/2023 19:05</t>
+          <t>22/03/2023 20:34</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>22/03/2023 09:40</t>
+          <t>22/03/2023 09:35</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>22/03/2023 20:59</t>
+          <t>22/03/2023 19:17</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/buhos-ulvr-nueve-de-octubre/SO3GUM9f/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-manta/Y14CV2fl/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>Buhos ULVR</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,34 +765,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Manta</t>
+          <t>Nueve de Octubre</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22/03/2023 09:35</t>
+          <t>22/03/2023 09:40</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.62</v>
+        <v>3.02</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>22/03/2023 19:17</t>
+          <t>22/03/2023 20:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>22/03/2023 09:35</t>
+          <t>22/03/2023 09:40</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -800,28 +800,28 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>22/03/2023 20:34</t>
+          <t>22/03/2023 19:05</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>22/03/2023 09:35</t>
+          <t>22/03/2023 09:40</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>22/03/2023 19:17</t>
+          <t>22/03/2023 20:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-manta/Y14CV2fl/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/buhos-ulvr-nueve-de-octubre/SO3GUM9f/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>America de Quito</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Ind. Juniors</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Buhos ULVR</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>09/05/2023 10:12</t>
+          <t>09/05/2023 14:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>11/05/2023 01:59</t>
+          <t>11/05/2023 00:05</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2.86</v>
+        <v>2.91</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>09/05/2023 10:12</t>
+          <t>09/05/2023 14:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>2.93</v>
+        <v>3.32</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>11/05/2023 01:59</t>
+          <t>11/05/2023 01:56</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>09/05/2023 10:12</t>
+          <t>09/05/2023 14:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.29</v>
+        <v>4.9</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>11/05/2023 01:59</t>
+          <t>11/05/2023 01:56</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/america-de-quito-buhos-ulvr/Yeib67SS/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/macara-independiente-juniors/r7bo99rA/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Ind. Juniors</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>10/05/2023 23:33</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>09/05/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>11/05/2023 00:05</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="R44" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>09/05/2023 14:12</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>11/05/2023 01:56</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>09/05/2023 14:12</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>4.9</v>
+        <v>4.02</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>11/05/2023 01:56</t>
+          <t>10/05/2023 23:33</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/macara-independiente-juniors/r7bo99rA/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/imbabura-cuniburo/U3fsAkT3/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>America de Quito</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Buhos ULVR</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>09/05/2023 14:12</t>
+          <t>09/05/2023 10:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>10/05/2023 23:33</t>
+          <t>11/05/2023 01:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>09/05/2023 14:12</t>
+          <t>09/05/2023 10:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.08</v>
+        <v>2.93</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:05</t>
+          <t>11/05/2023 01:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.74</v>
+        <v>3.53</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>09/05/2023 14:12</t>
+          <t>09/05/2023 10:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.02</v>
+        <v>4.29</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>10/05/2023 23:33</t>
+          <t>11/05/2023 01:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/imbabura-cuniburo/U3fsAkT3/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/america-de-quito-buhos-ulvr/Yeib67SS/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Ind. Juniors</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.14</v>
+        <v>2.39</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>31/05/2023 21:58</t>
+          <t>31/05/2023 20:20</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>31/05/2023 21:58</t>
+          <t>31/05/2023 20:20</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.37</v>
+        <v>3.09</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.1</v>
+        <v>3.51</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>31/05/2023 21:58</t>
+          <t>31/05/2023 20:20</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-cuniburo/ANi8E4Kk/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-independiente-juniors/dvjGCrk2/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Ind. Juniors</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.39</v>
+        <v>2.14</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>31/05/2023 20:20</t>
+          <t>31/05/2023 21:58</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.63</v>
+        <v>3.03</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>31/05/2023 20:20</t>
+          <t>31/05/2023 21:58</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.09</v>
+        <v>3.37</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.51</v>
+        <v>4.1</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>31/05/2023 20:20</t>
+          <t>31/05/2023 21:58</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-independiente-juniors/dvjGCrk2/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-cuniburo/ANi8E4Kk/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Manta</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>27/06/2023 14:12</t>
+          <t>27/06/2023 10:11</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.31</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>28/06/2023 21:51</t>
+          <t>28/06/2023 21:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.91</v>
+        <v>2.76</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>27/06/2023 14:12</t>
+          <t>27/06/2023 10:11</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>28/06/2023 21:51</t>
+          <t>28/06/2023 21:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.87</v>
+        <v>2.79</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>27/06/2023 14:12</t>
+          <t>27/06/2023 10:11</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.12</v>
+        <v>4.45</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>28/06/2023 21:51</t>
+          <t>28/06/2023 21:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/cuniburo-imbabura/h21kR2Lh/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-manta/n1fbPtj5/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,63 +8033,63 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Manta</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>27/06/2023 10:11</t>
+          <t>27/06/2023 14:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.93</v>
+        <v>2.31</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>28/06/2023 21:56</t>
+          <t>28/06/2023 21:51</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.76</v>
+        <v>2.91</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>27/06/2023 10:11</t>
+          <t>27/06/2023 14:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>28/06/2023 21:56</t>
+          <t>28/06/2023 21:51</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.79</v>
+        <v>2.87</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>27/06/2023 10:11</t>
+          <t>27/06/2023 14:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.45</v>
+        <v>3.12</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>28/06/2023 21:56</t>
+          <t>28/06/2023 21:51</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-manta/n1fbPtj5/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/cuniburo-imbabura/h21kR2Lh/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>America de Quito</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>2.03</v>
+        <v>2.36</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.53</v>
+        <v>2.37</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>10/09/2023 21:56</t>
+          <t>10/09/2023 21:51</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>2.83</v>
+        <v>2.94</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.74</v>
+        <v>3.05</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>10/09/2023 21:59</t>
+          <t>10/09/2023 21:51</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.85</v>
+        <v>2.85</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>6.74</v>
+        <v>3.11</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>10/09/2023 21:59</t>
+          <t>10/09/2023 21:51</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-vargas-torres/IJXXJuFI/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/america-de-quito-cuniburo/Iq3TMsVa/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>America de Quito</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>3</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Vargas Torres</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>1</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Cuniburo</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
       <c r="J144" t="n">
-        <v>2.36</v>
+        <v>2.03</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.37</v>
+        <v>1.53</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>10/09/2023 21:51</t>
+          <t>10/09/2023 21:56</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.05</v>
+        <v>3.74</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>10/09/2023 21:51</t>
+          <t>10/09/2023 21:59</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.85</v>
+        <v>3.85</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>3.11</v>
+        <v>6.74</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>10/09/2023 21:51</t>
+          <t>10/09/2023 21:59</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/america-de-quito-cuniburo/Iq3TMsVa/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-vargas-torres/IJXXJuFI/</t>
         </is>
       </c>
     </row>
@@ -15266,6 +15266,282 @@
       <c r="V161" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-buhos-ulvr/WlYQRTCd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45203.91666666666</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Nueve de Octubre</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Imbabura</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>03/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>03/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:55</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>03/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/nueve-de-octubre-imbabura/YDhjYVZS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45203.91666666666</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Vargas Torres</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Manta</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>03/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>03/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:45</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>03/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-manta/IoUMS9cj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45204.08333333334</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Ind. Juniors</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>America de Quito</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>03/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:56</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>03/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:56</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>03/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:56</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/independiente-juniors-america-de-quito/QmgnZBKM/</t>
         </is>
       </c>
     </row>

--- a/2023/ecuador_serie-b_2023.xlsx
+++ b/2023/ecuador_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V164"/>
+  <dimension ref="A1:V165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15545,6 +15545,98 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45205.08333333334</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Cuniburo</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Macara</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>04/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:37</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>04/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:37</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>04/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:37</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/cuniburo-macara/zNvITkrp/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_serie-b_2023.xlsx
+++ b/2023/ecuador_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:V166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>America de Quito</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Ind. Juniors</t>
+          <t>Buhos ULVR</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>09/05/2023 14:12</t>
+          <t>09/05/2023 10:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>11/05/2023 00:05</t>
+          <t>11/05/2023 01:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2.91</v>
+        <v>2.86</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>09/05/2023 14:12</t>
+          <t>09/05/2023 10:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.32</v>
+        <v>2.93</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>11/05/2023 01:56</t>
+          <t>11/05/2023 01:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>09/05/2023 14:12</t>
+          <t>09/05/2023 10:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.9</v>
+        <v>4.29</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>11/05/2023 01:56</t>
+          <t>11/05/2023 01:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/macara-independiente-juniors/r7bo99rA/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/america-de-quito-buhos-ulvr/Yeib67SS/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>America de Quito</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Ind. Juniors</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Buhos ULVR</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>09/05/2023 10:12</t>
+          <t>09/05/2023 14:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11/05/2023 01:59</t>
+          <t>11/05/2023 00:05</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>2.86</v>
+        <v>2.91</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>09/05/2023 10:12</t>
+          <t>09/05/2023 14:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2.93</v>
+        <v>3.32</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11/05/2023 01:59</t>
+          <t>11/05/2023 01:56</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>09/05/2023 10:12</t>
+          <t>09/05/2023 14:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.29</v>
+        <v>4.9</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>11/05/2023 01:59</t>
+          <t>11/05/2023 01:56</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/america-de-quito-buhos-ulvr/Yeib67SS/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/macara-independiente-juniors/r7bo99rA/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>America de Quito</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.91</v>
+        <v>2.74</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>17/05/2023 21:54</t>
+          <t>17/05/2023 21:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.74</v>
+        <v>2.89</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>17/05/2023 21:54</t>
+          <t>17/05/2023 21:57</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.02</v>
+        <v>2.84</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>5</v>
+        <v>2.71</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>17/05/2023 21:54</t>
+          <t>17/05/2023 21:57</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-america-de-quito/z5wQ1Rzp/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-imbabura/ITSU0ojj/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>America de Quito</t>
         </is>
       </c>
       <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>16/05/2023 18:58</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>17/05/2023 21:54</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>16/05/2023 18:58</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>17/05/2023 21:54</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>16/05/2023 18:58</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
         <v>5</v>
       </c>
-      <c r="J49" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>16/05/2023 18:58</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>17/05/2023 21:57</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>16/05/2023 18:58</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>17/05/2023 21:57</t>
-        </is>
-      </c>
-      <c r="R49" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>16/05/2023 18:58</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>2.71</v>
-      </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>17/05/2023 21:57</t>
+          <t>17/05/2023 21:54</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-imbabura/ITSU0ojj/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-america-de-quito/z5wQ1Rzp/</t>
         </is>
       </c>
     </row>
@@ -15634,6 +15634,98 @@
       <c r="V165" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/ecuador/serie-b/cuniburo-macara/zNvITkrp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45210.08333333334</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Imbabura</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Vargas Torres</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>09/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>11/10/2023 01:50</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>09/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>11/10/2023 01:55</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>09/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>11/10/2023 01:55</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/imbabura-vargas-torres/EXDPnVlM/</t>
         </is>
       </c>
     </row>

--- a/2023/ecuador_serie-b_2023.xlsx
+++ b/2023/ecuador_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V166"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Buhos ULVR</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>America de Quito</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>03/05/2023 21:55</t>
+          <t>03/05/2023 21:50</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.04</v>
+        <v>2.62</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>03/05/2023 21:52</t>
+          <t>03/05/2023 21:50</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.63</v>
+        <v>3.58</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>03/05/2023 21:55</t>
+          <t>03/05/2023 21:50</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-america-de-quito/EHkThlbT/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/buhos-ulvr-vargas-torres/AmyamSLj/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Buhos ULVR</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>America de Quito</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>03/05/2023 21:50</t>
+          <t>03/05/2023 21:55</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.62</v>
+        <v>3.04</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>03/05/2023 21:50</t>
+          <t>03/05/2023 21:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.58</v>
+        <v>3.63</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>03/05/2023 21:50</t>
+          <t>03/05/2023 21:55</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/buhos-ulvr-vargas-torres/AmyamSLj/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-america-de-quito/EHkThlbT/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>America de Quito</t>
         </is>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>16/05/2023 18:58</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>17/05/2023 21:54</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>16/05/2023 18:58</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>17/05/2023 21:54</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>16/05/2023 18:58</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
         <v>5</v>
       </c>
-      <c r="J48" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>16/05/2023 18:58</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>17/05/2023 21:57</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>16/05/2023 18:58</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>17/05/2023 21:57</t>
-        </is>
-      </c>
-      <c r="R48" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>16/05/2023 18:58</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>2.71</v>
-      </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>17/05/2023 21:57</t>
+          <t>17/05/2023 21:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-imbabura/ITSU0ojj/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-america-de-quito/z5wQ1Rzp/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>America de Quito</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.91</v>
+        <v>2.74</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>17/05/2023 21:54</t>
+          <t>17/05/2023 21:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2.74</v>
+        <v>2.89</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>17/05/2023 21:54</t>
+          <t>17/05/2023 21:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.02</v>
+        <v>2.84</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>5</v>
+        <v>2.71</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>17/05/2023 21:54</t>
+          <t>17/05/2023 21:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-america-de-quito/z5wQ1Rzp/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-imbabura/ITSU0ojj/</t>
         </is>
       </c>
     </row>
@@ -15726,6 +15726,374 @@
       <c r="V166" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/ecuador/serie-b/imbabura-vargas-torres/EXDPnVlM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45210.91666666666</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Buhos ULVR</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Cuniburo</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>10/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:33</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>10/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>10/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:33</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/buhos-ulvr-cuniburo/phM8jDkc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45210.91666666666</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Manta</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Ind. Juniors</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>2</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>11/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>11/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>11/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/manta-independiente-juniors/tKFHliK9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45210.97916666666</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>America de Quito</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Nueve de Octubre</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>10/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>11/10/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>10/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>11/10/2023 23:28</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>10/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>11/10/2023 23:28</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/america-de-quito-nueve-de-octubre/CIWSok4S/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45211.08333333334</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Macara</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Chacaritas</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>12/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>12/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>12/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/macara-chacaritas/KAELmBZF/</t>
         </is>
       </c>
     </row>

--- a/2023/ecuador_serie-b_2023.xlsx
+++ b/2023/ecuador_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Buhos ULVR</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>America de Quito</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>03/05/2023 21:50</t>
+          <t>03/05/2023 21:55</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.62</v>
+        <v>3.04</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>03/05/2023 21:50</t>
+          <t>03/05/2023 21:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.58</v>
+        <v>3.63</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>03/05/2023 21:50</t>
+          <t>03/05/2023 21:55</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/buhos-ulvr-vargas-torres/AmyamSLj/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-america-de-quito/EHkThlbT/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Buhos ULVR</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>America de Quito</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>03/05/2023 21:55</t>
+          <t>03/05/2023 21:50</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.04</v>
+        <v>2.62</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>03/05/2023 21:52</t>
+          <t>03/05/2023 21:50</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.63</v>
+        <v>3.58</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>03/05/2023 21:55</t>
+          <t>03/05/2023 21:50</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-america-de-quito/EHkThlbT/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/buhos-ulvr-vargas-torres/AmyamSLj/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Ind. Juniors</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.39</v>
+        <v>2.14</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>31/05/2023 20:20</t>
+          <t>31/05/2023 21:58</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.63</v>
+        <v>3.03</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>31/05/2023 20:20</t>
+          <t>31/05/2023 21:58</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.09</v>
+        <v>3.37</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.51</v>
+        <v>4.1</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>31/05/2023 20:20</t>
+          <t>31/05/2023 21:58</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-independiente-juniors/dvjGCrk2/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-cuniburo/ANi8E4Kk/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Ind. Juniors</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.14</v>
+        <v>2.39</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>31/05/2023 21:58</t>
+          <t>31/05/2023 20:20</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>31/05/2023 21:58</t>
+          <t>31/05/2023 20:20</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.37</v>
+        <v>3.09</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.1</v>
+        <v>3.51</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>31/05/2023 21:58</t>
+          <t>31/05/2023 20:20</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-cuniburo/ANi8E4Kk/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-independiente-juniors/dvjGCrk2/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>Nueve de Octubre</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>America de Quito</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.52</v>
+        <v>1.7</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>3.06</v>
+        <v>1.62</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>23/08/2023 21:40</t>
+          <t>23/08/2023 21:57</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.74</v>
+        <v>3.45</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.04</v>
+        <v>3.78</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>23/08/2023 21:40</t>
+          <t>23/08/2023 21:57</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.4</v>
+        <v>5.29</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>23/08/2023 21:40</t>
+          <t>23/08/2023 21:57</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-imbabura/GG46HngK/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/nueve-de-octubre-america-de-quito/xQ52ISwE/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Nueve de Octubre</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>America de Quito</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1.7</v>
+        <v>2.52</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.62</v>
+        <v>3.06</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>23/08/2023 21:57</t>
+          <t>23/08/2023 21:40</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.45</v>
+        <v>2.74</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.78</v>
+        <v>3.04</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>23/08/2023 21:57</t>
+          <t>23/08/2023 21:40</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.2</v>
+        <v>2.92</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.29</v>
+        <v>2.4</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>23/08/2023 21:57</t>
+          <t>23/08/2023 21:40</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/nueve-de-octubre-america-de-quito/xQ52ISwE/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-imbabura/GG46HngK/</t>
         </is>
       </c>
     </row>
@@ -16094,6 +16094,466 @@
       <c r="V170" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/ecuador/serie-b/macara-chacaritas/KAELmBZF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45217.9375</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Chacaritas</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Ind. Juniors</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:26</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:26</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:26</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-independiente-juniors/QPC3umsd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45217.9375</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Nueve de Octubre</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>3</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Buhos ULVR</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/nueve-de-octubre-buhos-ulvr/8lxlma02/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45217.9375</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Vargas Torres</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>America de Quito</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:18</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:18</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:18</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/vargas-torres-america-de-quito/Ia9es9Cq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45218.0625</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Cuniburo</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Imbabura</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>17/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:26</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>17/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:25</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>17/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:26</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/cuniburo-imbabura/dj8atTRk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45218.0625</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Macara</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Manta</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>3</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>17/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:41</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>17/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:41</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>17/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:41</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/macara-manta/4GB7v7d2/</t>
         </is>
       </c>
     </row>

--- a/2023/ecuador_serie-b_2023.xlsx
+++ b/2023/ecuador_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V175"/>
+  <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Buhos ULVR</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>America de Quito</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>03/05/2023 21:55</t>
+          <t>03/05/2023 21:50</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.04</v>
+        <v>2.62</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>03/05/2023 21:52</t>
+          <t>03/05/2023 21:50</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.63</v>
+        <v>3.58</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>03/05/2023 21:55</t>
+          <t>03/05/2023 21:50</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-america-de-quito/EHkThlbT/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/buhos-ulvr-vargas-torres/AmyamSLj/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Buhos ULVR</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>America de Quito</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>03/05/2023 21:50</t>
+          <t>03/05/2023 21:55</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.62</v>
+        <v>3.04</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>03/05/2023 21:50</t>
+          <t>03/05/2023 21:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.58</v>
+        <v>3.63</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>03/05/2023 21:50</t>
+          <t>03/05/2023 21:55</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/buhos-ulvr-vargas-torres/AmyamSLj/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/chacaritas-america-de-quito/EHkThlbT/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>America de Quito</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Buhos ULVR</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>09/05/2023 10:12</t>
+          <t>09/05/2023 14:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>11/05/2023 01:59</t>
+          <t>10/05/2023 23:33</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>09/05/2023 10:12</t>
+          <t>09/05/2023 14:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>2.93</v>
+        <v>3.08</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>11/05/2023 01:59</t>
+          <t>11/05/2023 00:05</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.53</v>
+        <v>3.74</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>09/05/2023 10:12</t>
+          <t>09/05/2023 14:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.29</v>
+        <v>4.02</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>11/05/2023 01:59</t>
+          <t>10/05/2023 23:33</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/america-de-quito-buhos-ulvr/Yeib67SS/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/imbabura-cuniburo/U3fsAkT3/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>America de Quito</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Buhos ULVR</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>09/05/2023 14:12</t>
+          <t>09/05/2023 10:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:33</t>
+          <t>11/05/2023 01:59</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>09/05/2023 14:12</t>
+          <t>09/05/2023 10:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.08</v>
+        <v>2.93</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>11/05/2023 00:05</t>
+          <t>11/05/2023 01:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.74</v>
+        <v>3.53</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>09/05/2023 14:12</t>
+          <t>09/05/2023 10:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.02</v>
+        <v>4.29</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:33</t>
+          <t>11/05/2023 01:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/serie-b/imbabura-cuniburo/U3fsAkT3/</t>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/america-de-quito-buhos-ulvr/Yeib67SS/</t>
         </is>
       </c>
     </row>
@@ -16554,6 +16554,466 @@
       <c r="V175" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/ecuador/serie-b/macara-manta/4GB7v7d2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45226.08333333334</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Ind. Juniors</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Cuniburo</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>4</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:58</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:58</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:58</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/independiente-juniors-cuniburo/MithnJF8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45226.08333333334</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>America de Quito</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>3</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Chacaritas</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:15</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:15</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:15</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/america-de-quito-chacaritas/GEudowVE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45226.08333333334</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Buhos ULVR</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Vargas Torres</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:53</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:53</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:53</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/buhos-ulvr-vargas-torres/zHecqHaR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45226.08333333334</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Imbabura</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>4</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Macara</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:15</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:15</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:15</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/imbabura-macara/f5v0pcpL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45226.08333333334</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Manta</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Nueve de Octubre</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:58</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:58</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:58</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/serie-b/manta-nueve-de-octubre/xQsPvy8r/</t>
         </is>
       </c>
     </row>
